--- a/Tests/Login/LoginTestCase.xlsx
+++ b/Tests/Login/LoginTestCase.xlsx
@@ -621,6 +621,9 @@
       <c r="A13" t="str">
         <v>login by username</v>
       </c>
+      <c r="B13" t="str">
+        <v>debug</v>
+      </c>
       <c r="C13" t="str">
         <v>aivi02</v>
       </c>
